--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Adroit Infotech Ltd/Pruned_Excel/Pruned_Ratios_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Adroit Infotech Ltd/Pruned_Excel/Pruned_Ratios_combined.xlsx
@@ -1115,7 +1115,7 @@
         <v>6.76</v>
       </c>
       <c r="G6">
-        <v>0.02777777777777778</v>
+        <v>0.03</v>
       </c>
       <c r="H6">
         <v>0.03</v>
@@ -1166,19 +1166,19 @@
         <v>0.4</v>
       </c>
       <c r="X6">
-        <v>0.2531578947368421</v>
+        <v>0.25</v>
       </c>
       <c r="Y6">
-        <v>2.525555555555556</v>
+        <v>2.53</v>
       </c>
       <c r="Z6">
-        <v>2.083333333333333</v>
+        <v>2.08</v>
       </c>
       <c r="AA6">
         <v>3.03</v>
       </c>
       <c r="AB6">
-        <v>3.472222222222222</v>
+        <v>3.47</v>
       </c>
       <c r="AC6">
         <v>17.25</v>
@@ -1193,7 +1193,7 @@
         <v>259.25</v>
       </c>
       <c r="AG6">
-        <v>3.029444444444445</v>
+        <v>3.03</v>
       </c>
       <c r="AH6">
         <v>1.21</v>
@@ -1445,7 +1445,7 @@
         <v>0.54</v>
       </c>
       <c r="G9">
-        <v>0.02777777777777778</v>
+        <v>0.03</v>
       </c>
       <c r="H9">
         <v>0.16</v>
@@ -1484,7 +1484,7 @@
         <v>-94.61</v>
       </c>
       <c r="T9">
-        <v>0.04894736842105263</v>
+        <v>0.05</v>
       </c>
       <c r="U9">
         <v>2.35</v>
@@ -1499,16 +1499,16 @@
         <v>0.04</v>
       </c>
       <c r="Y9">
-        <v>2.525555555555556</v>
+        <v>2.53</v>
       </c>
       <c r="Z9">
-        <v>2.083333333333333</v>
+        <v>2.08</v>
       </c>
       <c r="AA9">
         <v>3.03</v>
       </c>
       <c r="AB9">
-        <v>3.472222222222222</v>
+        <v>3.47</v>
       </c>
       <c r="AC9">
         <v>4.84</v>
@@ -1523,7 +1523,7 @@
         <v>14.03</v>
       </c>
       <c r="AG9">
-        <v>3.029444444444445</v>
+        <v>3.03</v>
       </c>
       <c r="AH9">
         <v>4.29</v>
